--- a/Code/Results/Cases/Case_6_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.32458668221669</v>
+        <v>21.04550817108413</v>
       </c>
       <c r="C2">
-        <v>11.62134990779741</v>
+        <v>12.33550897507428</v>
       </c>
       <c r="D2">
-        <v>2.36564126322983</v>
+        <v>4.689345953715457</v>
       </c>
       <c r="E2">
-        <v>6.5423585078833</v>
+        <v>7.532522587831139</v>
       </c>
       <c r="F2">
-        <v>42.52084061496994</v>
+        <v>24.03797623818913</v>
       </c>
       <c r="G2">
-        <v>2.145610096249452</v>
+        <v>2.11035689372106</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.336918591447984</v>
+        <v>6.147629159674229</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.339849790313321</v>
+        <v>6.681723493690131</v>
       </c>
       <c r="M2">
-        <v>13.11958619392027</v>
+        <v>12.95213351289867</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>32.68753834977359</v>
+        <v>18.09587889184679</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.09478183656464</v>
+        <v>19.68604419557478</v>
       </c>
       <c r="C3">
-        <v>10.85644778540054</v>
+        <v>11.81080448778228</v>
       </c>
       <c r="D3">
-        <v>2.28098149383583</v>
+        <v>4.632232348173067</v>
       </c>
       <c r="E3">
-        <v>6.551863118535802</v>
+        <v>7.619515974965029</v>
       </c>
       <c r="F3">
-        <v>41.49364450332611</v>
+        <v>23.99081046214515</v>
       </c>
       <c r="G3">
-        <v>2.15614250298482</v>
+        <v>2.116309734577565</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.378531699280175</v>
+        <v>6.209634469966479</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.292928760409837</v>
+        <v>6.565439293043139</v>
       </c>
       <c r="M3">
-        <v>12.68287491744384</v>
+        <v>12.36163841947499</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.95374378961585</v>
+        <v>18.15490661799851</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.31673513847424</v>
+        <v>18.80606107927701</v>
       </c>
       <c r="C4">
-        <v>10.363068109147</v>
+        <v>11.47695673310693</v>
       </c>
       <c r="D4">
-        <v>2.228723505992943</v>
+        <v>4.598067647648977</v>
       </c>
       <c r="E4">
-        <v>6.558333836248489</v>
+        <v>7.674941764459106</v>
       </c>
       <c r="F4">
-        <v>40.88536584979119</v>
+        <v>23.98657175462012</v>
       </c>
       <c r="G4">
-        <v>2.162765794389893</v>
+        <v>2.120076785717008</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.404690788509068</v>
+        <v>6.248778206813706</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.266929140978533</v>
+        <v>6.494938564766839</v>
       </c>
       <c r="M4">
-        <v>12.41616430792569</v>
+        <v>11.98784192582668</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.52164874685233</v>
+        <v>18.20971284251055</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.99418614833731</v>
+        <v>18.43613381415953</v>
       </c>
       <c r="C5">
-        <v>10.15598614082978</v>
+        <v>11.33809799342909</v>
       </c>
       <c r="D5">
-        <v>2.207345214340427</v>
+        <v>4.584379904427609</v>
       </c>
       <c r="E5">
-        <v>6.561124814340688</v>
+        <v>7.698038375321937</v>
       </c>
       <c r="F5">
-        <v>40.64313870001538</v>
+        <v>23.99082443122261</v>
       </c>
       <c r="G5">
-        <v>2.165506461429647</v>
+        <v>2.121640776598879</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.415510367329369</v>
+        <v>6.265005879516885</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.257031184202007</v>
+        <v>6.466459801515074</v>
       </c>
       <c r="M5">
-        <v>12.30796354263852</v>
+        <v>11.83287461082127</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.35017794183472</v>
+        <v>18.23650644373201</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.94030534771545</v>
+        <v>18.37402579423922</v>
       </c>
       <c r="C6">
-        <v>10.12123487882147</v>
+        <v>11.31487469164822</v>
       </c>
       <c r="D6">
-        <v>2.203790028913244</v>
+        <v>4.582121452240721</v>
       </c>
       <c r="E6">
-        <v>6.561597411612626</v>
+        <v>7.701904488097458</v>
       </c>
       <c r="F6">
-        <v>40.60325873133161</v>
+        <v>23.99188473952551</v>
       </c>
       <c r="G6">
-        <v>2.165964125296381</v>
+        <v>2.121902241449426</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.417316768737241</v>
+        <v>6.267717348509996</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.255429457297493</v>
+        <v>6.461746807411936</v>
       </c>
       <c r="M6">
-        <v>12.29003014194758</v>
+        <v>11.80698869045501</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.32198293150021</v>
+        <v>18.24121881782224</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.31240692613792</v>
+        <v>18.80111787737346</v>
       </c>
       <c r="C7">
-        <v>10.36029979787253</v>
+        <v>11.47509524834259</v>
       </c>
       <c r="D7">
-        <v>2.228435541541433</v>
+        <v>4.597882090110326</v>
       </c>
       <c r="E7">
-        <v>6.558370859242367</v>
+        <v>7.675251182112679</v>
       </c>
       <c r="F7">
-        <v>40.88207619162033</v>
+        <v>23.98660521149111</v>
       </c>
       <c r="G7">
-        <v>2.162802584527124</v>
+        <v>2.120097760343768</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.404836050839406</v>
+        <v>6.248995931609593</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.266792843828299</v>
+        <v>6.494553441409616</v>
       </c>
       <c r="M7">
-        <v>12.41470293195436</v>
+        <v>11.9857624197315</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.51931760145164</v>
+        <v>18.21005640658693</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.90545600642461</v>
+        <v>20.58618426912935</v>
       </c>
       <c r="C8">
-        <v>11.36249677737415</v>
+        <v>12.15708236275277</v>
       </c>
       <c r="D8">
-        <v>2.336499210114761</v>
+        <v>4.669470261874907</v>
       </c>
       <c r="E8">
-        <v>6.545500410370517</v>
+        <v>7.562103059783568</v>
       </c>
       <c r="F8">
-        <v>42.16201607621053</v>
+        <v>24.01644235188189</v>
       </c>
       <c r="G8">
-        <v>2.149210662024932</v>
+        <v>2.112386640744412</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.351144577452781</v>
+        <v>6.168790156957021</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.323082470400769</v>
+        <v>6.641457190165323</v>
       </c>
       <c r="M8">
-        <v>12.96878259658165</v>
+        <v>12.7509619840166</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>32.43067705680112</v>
+        <v>18.11225292898629</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.83890745456598</v>
+        <v>23.80894436089035</v>
       </c>
       <c r="C9">
-        <v>13.14282445452618</v>
+        <v>13.39736254290748</v>
       </c>
       <c r="D9">
-        <v>2.546967237683057</v>
+        <v>4.816689901016326</v>
       </c>
       <c r="E9">
-        <v>6.525583998776777</v>
+        <v>7.355979212701847</v>
       </c>
       <c r="F9">
-        <v>44.84983989227719</v>
+        <v>24.28129916948417</v>
       </c>
       <c r="G9">
-        <v>2.12368362931587</v>
+        <v>2.098118826109583</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.250362971065868</v>
+        <v>6.019696409060411</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.456200552347248</v>
+        <v>6.935587905861269</v>
       </c>
       <c r="M9">
-        <v>14.06189724883869</v>
+        <v>14.15582032963432</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>34.36589850602876</v>
+        <v>18.07715391351422</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.87153189305172</v>
+        <v>25.97136823264836</v>
       </c>
       <c r="C10">
-        <v>14.34347847079261</v>
+        <v>14.24469967736043</v>
       </c>
       <c r="D10">
-        <v>2.702025495666081</v>
+        <v>4.928585126696165</v>
       </c>
       <c r="E10">
-        <v>6.514658505555126</v>
+        <v>7.213862519315494</v>
       </c>
       <c r="F10">
-        <v>46.9345710071131</v>
+        <v>24.61498060060386</v>
       </c>
       <c r="G10">
-        <v>2.105440272303196</v>
+        <v>2.08810501085608</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.178576628447724</v>
+        <v>5.914680498570932</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.568507870867116</v>
+        <v>7.153999863836931</v>
       </c>
       <c r="M10">
-        <v>14.86386301916383</v>
+        <v>15.1225858025048</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>35.88116635771874</v>
+        <v>18.15980796768162</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.8020376573925</v>
+        <v>26.90372360546726</v>
       </c>
       <c r="C11">
-        <v>14.86781048805221</v>
+        <v>14.61562030138432</v>
       </c>
       <c r="D11">
-        <v>2.773032430452951</v>
+        <v>4.980212475023568</v>
       </c>
       <c r="E11">
-        <v>6.510618642155837</v>
+        <v>7.151172361317873</v>
       </c>
       <c r="F11">
-        <v>47.90784143273247</v>
+        <v>24.79962116301792</v>
       </c>
       <c r="G11">
-        <v>2.09720758661913</v>
+        <v>2.083638985588792</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.146287865973899</v>
+        <v>5.867777911455042</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.622907241036113</v>
+        <v>7.253596005515996</v>
       </c>
       <c r="M11">
-        <v>15.22776568334336</v>
+        <v>15.54715613140073</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>36.59192017354686</v>
+        <v>18.22371296773106</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.16705853325625</v>
+        <v>27.24950090373892</v>
       </c>
       <c r="C12">
-        <v>15.06335642007104</v>
+        <v>14.75394845155104</v>
       </c>
       <c r="D12">
-        <v>2.800026707255547</v>
+        <v>4.999859869940862</v>
       </c>
       <c r="E12">
-        <v>6.509235261763366</v>
+        <v>7.127710117414342</v>
       </c>
       <c r="F12">
-        <v>48.28011593693821</v>
+        <v>24.87446390103879</v>
       </c>
       <c r="G12">
-        <v>2.094095427581908</v>
+        <v>2.08195957452185</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.134102504201364</v>
+        <v>5.850132536561885</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.643997690377978</v>
+        <v>7.291324504837318</v>
       </c>
       <c r="M12">
-        <v>15.36540664156225</v>
+        <v>15.7056802817635</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.86428181963743</v>
+        <v>18.25191815640631</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.08867775339191</v>
+        <v>27.17535400418448</v>
       </c>
       <c r="C13">
-        <v>15.02137351496476</v>
+        <v>14.72425233141372</v>
       </c>
       <c r="D13">
-        <v>2.794207639721682</v>
+        <v>4.995624233681991</v>
       </c>
       <c r="E13">
-        <v>6.509526460875041</v>
+        <v>7.132750877977633</v>
       </c>
       <c r="F13">
-        <v>48.19977179890602</v>
+        <v>24.85812314223606</v>
       </c>
       <c r="G13">
-        <v>2.094765518989511</v>
+        <v>2.082320759831423</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.136725175326511</v>
+        <v>5.853927798592833</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.639433409511231</v>
+        <v>7.283198703553782</v>
       </c>
       <c r="M13">
-        <v>15.33577057092952</v>
+        <v>15.67164023128036</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>36.80547836265388</v>
+        <v>18.24566199171163</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.83217344542517</v>
+        <v>26.93231635099795</v>
       </c>
       <c r="C14">
-        <v>14.88395760342878</v>
+        <v>14.62704355100456</v>
       </c>
       <c r="D14">
-        <v>2.775250910769072</v>
+        <v>4.981826967722513</v>
       </c>
       <c r="E14">
-        <v>6.510501815984103</v>
+        <v>7.149236580072131</v>
       </c>
       <c r="F14">
-        <v>47.9383931754904</v>
+        <v>24.80567874196884</v>
       </c>
       <c r="G14">
-        <v>2.096951465182175</v>
+        <v>2.083500589811834</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.145284601238433</v>
+        <v>5.866323954973822</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.624632441429171</v>
+        <v>7.256699791714132</v>
       </c>
       <c r="M14">
-        <v>15.23909279805125</v>
+        <v>15.56024343312689</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>36.61426220692205</v>
+        <v>18.22595187855807</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.67437132108577</v>
+        <v>26.78250294927704</v>
       </c>
       <c r="C15">
-        <v>14.79939906331822</v>
+        <v>14.56722177821328</v>
       </c>
       <c r="D15">
-        <v>2.763654343137135</v>
+        <v>4.973388206794167</v>
       </c>
       <c r="E15">
-        <v>6.511118729746693</v>
+        <v>7.159370506289873</v>
       </c>
       <c r="F15">
-        <v>47.77878045913778</v>
+        <v>24.77420194816198</v>
       </c>
       <c r="G15">
-        <v>2.098290989182942</v>
+        <v>2.084224770318791</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.150532576326083</v>
+        <v>5.873931724795899</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.615630780513018</v>
+        <v>7.240469628965661</v>
       </c>
       <c r="M15">
-        <v>15.17985343407881</v>
+        <v>15.49171488641562</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>36.49756001203408</v>
+        <v>18.21440709622693</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.81231412079086</v>
+        <v>25.90941172895882</v>
       </c>
       <c r="C16">
-        <v>14.30878358377079</v>
+        <v>14.22016283279365</v>
       </c>
       <c r="D16">
-        <v>2.697397576022152</v>
+        <v>4.925225138683288</v>
       </c>
       <c r="E16">
-        <v>6.514942274883587</v>
+        <v>7.217998503556679</v>
       </c>
       <c r="F16">
-        <v>46.87147710984622</v>
+        <v>24.60359222089953</v>
       </c>
       <c r="G16">
-        <v>2.105979287945615</v>
+        <v>2.088398583783149</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.18069324058818</v>
+        <v>5.917762399721001</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.565020552576883</v>
+        <v>7.147494016410709</v>
       </c>
       <c r="M16">
-        <v>14.84005963712807</v>
+        <v>15.09452713653953</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>35.83515874062947</v>
+        <v>18.15618009839624</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.29036580870529</v>
+        <v>25.36071678091552</v>
       </c>
       <c r="C17">
-        <v>14.00230092875224</v>
+        <v>14.00349699770608</v>
       </c>
       <c r="D17">
-        <v>2.656896543152947</v>
+        <v>4.895859270991312</v>
       </c>
       <c r="E17">
-        <v>6.517534530236039</v>
+        <v>7.254463461092003</v>
       </c>
       <c r="F17">
-        <v>46.32133581215414</v>
+        <v>24.5074874190566</v>
       </c>
       <c r="G17">
-        <v>2.110709988767852</v>
+        <v>2.09098122212388</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.199282334081333</v>
+        <v>5.944867314901773</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.534830372232365</v>
+        <v>7.090502408541499</v>
       </c>
       <c r="M17">
-        <v>14.63134416577198</v>
+        <v>14.84691750019584</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>35.43437085740513</v>
+        <v>18.12735684326218</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.98763726777058</v>
+        <v>25.04028334633212</v>
       </c>
       <c r="C18">
-        <v>13.82395438759116</v>
+        <v>13.87750985844014</v>
       </c>
       <c r="D18">
-        <v>2.633643038027583</v>
+        <v>4.879037495513376</v>
       </c>
       <c r="E18">
-        <v>6.519112212317918</v>
+        <v>7.275621847632367</v>
       </c>
       <c r="F18">
-        <v>46.00724302805649</v>
+        <v>24.45529096252968</v>
       </c>
       <c r="G18">
-        <v>2.113437479972196</v>
+        <v>2.092475161848596</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.210009582180234</v>
+        <v>5.960539803316871</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.517776370180927</v>
+        <v>7.057746017129269</v>
       </c>
       <c r="M18">
-        <v>14.51121068035814</v>
+        <v>14.70306940195978</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>35.20585732246001</v>
+        <v>18.11324127021822</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.8847052202215</v>
+        <v>24.93095614611084</v>
       </c>
       <c r="C19">
-        <v>13.76321066768189</v>
+        <v>13.83461949817226</v>
       </c>
       <c r="D19">
-        <v>2.625775899483292</v>
+        <v>4.873353955983807</v>
       </c>
       <c r="E19">
-        <v>6.519660923160925</v>
+        <v>7.282817577880536</v>
       </c>
       <c r="F19">
-        <v>45.90129427348732</v>
+        <v>24.43814094118183</v>
       </c>
       <c r="G19">
-        <v>2.114362199693547</v>
+        <v>2.092982470942202</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.213648025630818</v>
+        <v>5.96586067877432</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.512055111771015</v>
+        <v>7.046659997139114</v>
       </c>
       <c r="M19">
-        <v>14.47052208589097</v>
+        <v>14.65412158887136</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>35.12882832630955</v>
+        <v>18.10887811878748</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.34618840244737</v>
+        <v>25.41962637868287</v>
       </c>
       <c r="C20">
-        <v>14.03513941181421</v>
+        <v>14.02670322743598</v>
       </c>
       <c r="D20">
-        <v>2.661203386327118</v>
+        <v>4.898978261485949</v>
       </c>
       <c r="E20">
-        <v>6.517249523310174</v>
+        <v>7.250562620991682</v>
       </c>
       <c r="F20">
-        <v>46.37965694366042</v>
+        <v>24.51739763742035</v>
       </c>
       <c r="G20">
-        <v>2.110205751621395</v>
+        <v>2.090705426275233</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.197299917441241</v>
+        <v>5.941973482783368</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.538011924576994</v>
+        <v>7.096566969225108</v>
       </c>
       <c r="M20">
-        <v>14.65357146047075</v>
+        <v>14.87342443854078</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>35.47682667285779</v>
+        <v>18.13016861109404</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.90765753072719</v>
+        <v>27.00389932987846</v>
       </c>
       <c r="C21">
-        <v>14.92440044031285</v>
+        <v>14.65565424014878</v>
       </c>
       <c r="D21">
-        <v>2.78081576335363</v>
+        <v>4.985876973720212</v>
       </c>
       <c r="E21">
-        <v>6.510211245203173</v>
+        <v>7.14438684441007</v>
       </c>
       <c r="F21">
-        <v>48.01506412893163</v>
+        <v>24.82094777539617</v>
       </c>
       <c r="G21">
-        <v>2.096309289387221</v>
+        <v>2.083153734442927</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.142769453315764</v>
+        <v>5.862679843841887</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.628966402852811</v>
+        <v>7.264482951754876</v>
       </c>
       <c r="M21">
-        <v>15.2674938888564</v>
+        <v>15.59302489682695</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>36.67033853405879</v>
+        <v>18.23163074052119</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.96044353876118</v>
+        <v>27.99689620379656</v>
       </c>
       <c r="C22">
-        <v>15.4881311365132</v>
+        <v>15.05427565680957</v>
       </c>
       <c r="D22">
-        <v>2.859626844374327</v>
+        <v>5.043234263379374</v>
       </c>
       <c r="E22">
-        <v>6.506472276185066</v>
+        <v>7.076608202392879</v>
       </c>
       <c r="F22">
-        <v>49.1056774172519</v>
+        <v>25.04811764504803</v>
       </c>
       <c r="G22">
-        <v>2.087256203187122</v>
+        <v>2.078286353390092</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.107367611347423</v>
+        <v>5.811525938878765</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.691278425351241</v>
+        <v>7.374296788793032</v>
       </c>
       <c r="M22">
-        <v>15.66779280385161</v>
+        <v>16.05018464808546</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.46919776294676</v>
+        <v>18.32139161347991</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.40130553116716</v>
+        <v>27.47076301773836</v>
       </c>
       <c r="C23">
-        <v>15.18880512326138</v>
+        <v>14.84267214662671</v>
       </c>
       <c r="D23">
-        <v>2.817491243703095</v>
+        <v>5.012572175972779</v>
       </c>
       <c r="E23">
-        <v>6.508384307946927</v>
+        <v>7.112636834309362</v>
       </c>
       <c r="F23">
-        <v>48.52154282305613</v>
+        <v>24.92417595535538</v>
       </c>
       <c r="G23">
-        <v>2.092086855096943</v>
+        <v>2.080878309432244</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.126244547504863</v>
+        <v>5.838769802718824</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.657753475441912</v>
+        <v>7.315686948880039</v>
       </c>
       <c r="M23">
-        <v>15.45423459545668</v>
+        <v>15.8074088868346</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>37.0410539808013</v>
+        <v>18.27126612705459</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.32095927678027</v>
+        <v>25.393008872811</v>
       </c>
       <c r="C24">
-        <v>14.02029982659914</v>
+        <v>14.01621612025936</v>
       </c>
       <c r="D24">
-        <v>2.659256168497026</v>
+        <v>4.897567975168742</v>
       </c>
       <c r="E24">
-        <v>6.517378103761735</v>
+        <v>7.2523255855727</v>
       </c>
       <c r="F24">
-        <v>46.35328314572437</v>
+        <v>24.51290772585503</v>
       </c>
       <c r="G24">
-        <v>2.110433692793589</v>
+        <v>2.090830085009217</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.1981960421819</v>
+        <v>5.943281504768805</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.536572602882326</v>
+        <v>7.093825152191224</v>
       </c>
       <c r="M24">
-        <v>14.64352293462108</v>
+        <v>14.86144530026013</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>35.45762647502772</v>
+        <v>18.12888978009142</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.06663137131143</v>
+        <v>22.9664569599096</v>
       </c>
       <c r="C25">
-        <v>12.68048909280213</v>
+        <v>13.07277625367383</v>
       </c>
       <c r="D25">
-        <v>2.490064678899749</v>
+        <v>4.776176600352835</v>
       </c>
       <c r="E25">
-        <v>6.530358502999232</v>
+        <v>7.41008332581534</v>
       </c>
       <c r="F25">
-        <v>44.10359875918714</v>
+        <v>24.18614820879587</v>
       </c>
       <c r="G25">
-        <v>2.130485804000269</v>
+        <v>2.101892399565608</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.277192468877232</v>
+        <v>6.059200360397364</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.4176903220035</v>
+        <v>6.855515575467691</v>
       </c>
       <c r="M25">
-        <v>13.76607895534703</v>
+        <v>13.78683043266957</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>33.82624596860803</v>
+        <v>18.06854126578267</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.04550817108413</v>
+        <v>21.15782362444409</v>
       </c>
       <c r="C2">
-        <v>12.33550897507428</v>
+        <v>13.56468507702299</v>
       </c>
       <c r="D2">
-        <v>4.689345953715457</v>
+        <v>5.589041590646051</v>
       </c>
       <c r="E2">
-        <v>7.532522587831139</v>
+        <v>7.870540933265301</v>
       </c>
       <c r="F2">
-        <v>24.03797623818913</v>
+        <v>19.41246160560287</v>
       </c>
       <c r="G2">
-        <v>2.11035689372106</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>21.05907595806695</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.035503972091202</v>
       </c>
       <c r="J2">
-        <v>6.147629159674229</v>
+        <v>8.850313763297395</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.99297658231417</v>
       </c>
       <c r="L2">
-        <v>6.681723493690131</v>
+        <v>6.155386864252431</v>
       </c>
       <c r="M2">
-        <v>12.95213351289867</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.839732650012949</v>
       </c>
       <c r="O2">
-        <v>18.09587889184679</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.94933466575701</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.19462353998073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.68604419557478</v>
+        <v>19.76689303151014</v>
       </c>
       <c r="C3">
-        <v>11.81080448778228</v>
+        <v>12.98553212747193</v>
       </c>
       <c r="D3">
-        <v>4.632232348173067</v>
+        <v>5.529133059442368</v>
       </c>
       <c r="E3">
-        <v>7.619515974965029</v>
+        <v>7.961287268588007</v>
       </c>
       <c r="F3">
-        <v>23.99081046214515</v>
+        <v>19.4250741732089</v>
       </c>
       <c r="G3">
-        <v>2.116309734577565</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>20.9874036707502</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.204584149241839</v>
       </c>
       <c r="J3">
-        <v>6.209634469966479</v>
+        <v>8.935389795608966</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.27654001127976</v>
       </c>
       <c r="L3">
-        <v>6.565439293043139</v>
+        <v>6.195650624990188</v>
       </c>
       <c r="M3">
-        <v>12.36163841947499</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.71635602622692</v>
       </c>
       <c r="O3">
-        <v>18.15490661799851</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.30375557091199</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.28805019338592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.80606107927701</v>
+        <v>18.86040391948379</v>
       </c>
       <c r="C4">
-        <v>11.47695673310693</v>
+        <v>12.61914075271281</v>
       </c>
       <c r="D4">
-        <v>4.598067647648977</v>
+        <v>5.494204145565622</v>
       </c>
       <c r="E4">
-        <v>7.674941764459106</v>
+        <v>8.019016455811176</v>
       </c>
       <c r="F4">
-        <v>23.98657175462012</v>
+        <v>19.44656992191173</v>
       </c>
       <c r="G4">
-        <v>2.120076785717008</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>20.96326199197219</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.312789201210721</v>
       </c>
       <c r="J4">
-        <v>6.248778206813706</v>
+        <v>8.991747725924526</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.45659093274839</v>
       </c>
       <c r="L4">
-        <v>6.494938564766839</v>
+        <v>6.221267916321879</v>
       </c>
       <c r="M4">
-        <v>11.98784192582668</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.642296026557598</v>
       </c>
       <c r="O4">
-        <v>18.20971284251055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.89117008995351</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.35481230785676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.43613381415953</v>
+        <v>18.47731146642972</v>
       </c>
       <c r="C5">
-        <v>11.33809799342909</v>
+        <v>12.47586526773258</v>
       </c>
       <c r="D5">
-        <v>4.584379904427609</v>
+        <v>5.480744709106498</v>
       </c>
       <c r="E5">
-        <v>7.698038375321937</v>
+        <v>8.042547390299577</v>
       </c>
       <c r="F5">
-        <v>23.99082443122261</v>
+        <v>19.45232934074222</v>
       </c>
       <c r="G5">
-        <v>2.121640776598879</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>20.94697672537218</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.360656801814505</v>
       </c>
       <c r="J5">
-        <v>6.265005879516885</v>
+        <v>9.013957203609138</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.52798469122168</v>
       </c>
       <c r="L5">
-        <v>6.466459801515074</v>
+        <v>6.231936174075126</v>
       </c>
       <c r="M5">
-        <v>11.83287461082127</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.614180196503069</v>
       </c>
       <c r="O5">
-        <v>18.23650644373201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.72043856568156</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.37979721239346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37402579423922</v>
+        <v>18.41234154599127</v>
       </c>
       <c r="C6">
-        <v>11.31487469164822</v>
+        <v>12.46247794065363</v>
       </c>
       <c r="D6">
-        <v>4.582121452240721</v>
+        <v>5.478904969655546</v>
       </c>
       <c r="E6">
-        <v>7.701904488097458</v>
+        <v>8.045871416377743</v>
       </c>
       <c r="F6">
-        <v>23.99188473952551</v>
+        <v>19.44572550388384</v>
       </c>
       <c r="G6">
-        <v>2.121902241449426</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>20.93078618640784</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.372091756161865</v>
       </c>
       <c r="J6">
-        <v>6.267717348509996</v>
+        <v>9.015546688846261</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.53570507907456</v>
       </c>
       <c r="L6">
-        <v>6.461746807411936</v>
+        <v>6.233726546664452</v>
       </c>
       <c r="M6">
-        <v>11.80698869045501</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.61150902830015</v>
       </c>
       <c r="O6">
-        <v>18.24121881782224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.69345625175844</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.37858595608122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.80111787737346</v>
+        <v>18.85380683810925</v>
       </c>
       <c r="C7">
-        <v>11.47509524834259</v>
+        <v>12.64569833710032</v>
       </c>
       <c r="D7">
-        <v>4.597882090110326</v>
+        <v>5.495016196537367</v>
       </c>
       <c r="E7">
-        <v>7.675251182112679</v>
+        <v>8.017668368482633</v>
       </c>
       <c r="F7">
-        <v>23.98660521149111</v>
+        <v>19.42546346919717</v>
       </c>
       <c r="G7">
-        <v>2.120097760343768</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>20.92546192623747</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.322482646386809</v>
       </c>
       <c r="J7">
-        <v>6.248995931609593</v>
+        <v>8.986148332001994</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.44600281760485</v>
       </c>
       <c r="L7">
-        <v>6.494553441409616</v>
+        <v>6.221445716270302</v>
       </c>
       <c r="M7">
-        <v>11.9857624197315</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.647252137773861</v>
       </c>
       <c r="O7">
-        <v>18.21005640658693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.89315214587075</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.34012837548092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.58618426912935</v>
+        <v>20.68727916391979</v>
       </c>
       <c r="C8">
-        <v>12.15708236275277</v>
+        <v>13.40343135997756</v>
       </c>
       <c r="D8">
-        <v>4.669470261874907</v>
+        <v>5.569300740764574</v>
       </c>
       <c r="E8">
-        <v>7.562103059783568</v>
+        <v>7.899270840885664</v>
       </c>
       <c r="F8">
-        <v>24.01644235188189</v>
+        <v>19.38600508970252</v>
       </c>
       <c r="G8">
-        <v>2.112386640744412</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>20.98080873054792</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.104516925004099</v>
       </c>
       <c r="J8">
-        <v>6.168790156957021</v>
+        <v>8.87097468344041</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.07419771233358</v>
       </c>
       <c r="L8">
-        <v>6.641457190165323</v>
+        <v>6.169220562879441</v>
       </c>
       <c r="M8">
-        <v>12.7509619840166</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.803737244257574</v>
       </c>
       <c r="O8">
-        <v>18.11225292898629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.73543197415195</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.20496114222203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80894436089035</v>
+        <v>23.87111007306388</v>
       </c>
       <c r="C9">
-        <v>13.39736254290748</v>
+        <v>14.75103738891852</v>
       </c>
       <c r="D9">
-        <v>4.816689901016326</v>
+        <v>5.727525986606357</v>
       </c>
       <c r="E9">
-        <v>7.355979212701847</v>
+        <v>7.685776412668799</v>
       </c>
       <c r="F9">
-        <v>24.28129916948417</v>
+        <v>19.46045085407564</v>
       </c>
       <c r="G9">
-        <v>2.098118826109583</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>21.32117312292397</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.696578171585745</v>
       </c>
       <c r="J9">
-        <v>6.019696409060411</v>
+        <v>8.689707810371891</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.41357904347297</v>
       </c>
       <c r="L9">
-        <v>6.935587905861269</v>
+        <v>6.073643213302122</v>
       </c>
       <c r="M9">
-        <v>14.15582032963432</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.113496284326952</v>
       </c>
       <c r="O9">
-        <v>18.07715391351422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.24586244423495</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.04558001961232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.97136823264836</v>
+        <v>25.96061250338161</v>
       </c>
       <c r="C10">
-        <v>14.24469967736043</v>
+        <v>15.69348572848812</v>
       </c>
       <c r="D10">
-        <v>4.928585126696165</v>
+        <v>5.852341169125035</v>
       </c>
       <c r="E10">
-        <v>7.213862519315494</v>
+        <v>7.537601727838089</v>
       </c>
       <c r="F10">
-        <v>24.61498060060386</v>
+        <v>19.58106850296713</v>
       </c>
       <c r="G10">
-        <v>2.08810501085608</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>21.66321942100048</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.546077295257982</v>
       </c>
       <c r="J10">
-        <v>5.914680498570932</v>
+        <v>8.5763417132719</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.95270491490185</v>
       </c>
       <c r="L10">
-        <v>7.153999863836931</v>
+        <v>6.007795566973201</v>
       </c>
       <c r="M10">
-        <v>15.1225858025048</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.349134868573397</v>
       </c>
       <c r="O10">
-        <v>18.15980796768162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.26911462212204</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.97505443936224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.90372360546726</v>
+        <v>26.85610530111224</v>
       </c>
       <c r="C11">
-        <v>14.61562030138432</v>
+        <v>16.14656544717113</v>
       </c>
       <c r="D11">
-        <v>4.980212475023568</v>
+        <v>5.912228401237181</v>
       </c>
       <c r="E11">
-        <v>7.151172361317873</v>
+        <v>7.469713242317834</v>
       </c>
       <c r="F11">
-        <v>24.79962116301792</v>
+        <v>19.62052216450956</v>
       </c>
       <c r="G11">
-        <v>2.083638985588792</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>21.78690529173956</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.67560858077777</v>
       </c>
       <c r="J11">
-        <v>5.867777911455042</v>
+        <v>8.520486923327175</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.73044942860048</v>
       </c>
       <c r="L11">
-        <v>7.253596005515996</v>
+        <v>5.979250076232432</v>
       </c>
       <c r="M11">
-        <v>15.54715613140073</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.464838224998608</v>
       </c>
       <c r="O11">
-        <v>18.22371296773106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.71959455530243</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.93165430296583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.24950090373892</v>
+        <v>27.18857135757304</v>
       </c>
       <c r="C12">
-        <v>14.75394845155104</v>
+        <v>16.29520649832131</v>
       </c>
       <c r="D12">
-        <v>4.999859869940862</v>
+        <v>5.934323975948809</v>
       </c>
       <c r="E12">
-        <v>7.127710117414342</v>
+        <v>7.445626453540105</v>
       </c>
       <c r="F12">
-        <v>24.87446390103879</v>
+        <v>19.65597675167362</v>
       </c>
       <c r="G12">
-        <v>2.08195957452185</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>21.86848637734484</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.720786162690174</v>
       </c>
       <c r="J12">
-        <v>5.850132536561885</v>
+        <v>8.50530321284598</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.65760698212945</v>
       </c>
       <c r="L12">
-        <v>7.291324504837318</v>
+        <v>5.968336436866455</v>
       </c>
       <c r="M12">
-        <v>15.7056802817635</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.504601196539137</v>
       </c>
       <c r="O12">
-        <v>18.25191815640631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.88444394160583</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.93019248378142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.17535400418448</v>
+        <v>27.1174949879328</v>
       </c>
       <c r="C13">
-        <v>14.72425233141372</v>
+        <v>16.25916855727197</v>
       </c>
       <c r="D13">
-        <v>4.995624233681991</v>
+        <v>5.929395934379395</v>
       </c>
       <c r="E13">
-        <v>7.132750877977633</v>
+        <v>7.451068348153809</v>
       </c>
       <c r="F13">
-        <v>24.85812314223606</v>
+        <v>19.65178623556839</v>
       </c>
       <c r="G13">
-        <v>2.082320759831423</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>21.85690545968199</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.710306101118694</v>
       </c>
       <c r="J13">
-        <v>5.853927798592833</v>
+        <v>8.509572370088677</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.67532976037471</v>
       </c>
       <c r="L13">
-        <v>7.283198703553782</v>
+        <v>5.970629447130842</v>
       </c>
       <c r="M13">
-        <v>15.67164023128036</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.495211814879607</v>
       </c>
       <c r="O13">
-        <v>18.24566199171163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.84852648548605</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13.93302322056178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.93231635099795</v>
+        <v>26.88369037052378</v>
       </c>
       <c r="C14">
-        <v>14.62704355100456</v>
+        <v>16.15707653334498</v>
       </c>
       <c r="D14">
-        <v>4.981826967722513</v>
+        <v>5.913973797368413</v>
       </c>
       <c r="E14">
-        <v>7.149236580072131</v>
+        <v>7.467839450048411</v>
       </c>
       <c r="F14">
-        <v>24.80567874196884</v>
+        <v>19.6249023150738</v>
       </c>
       <c r="G14">
-        <v>2.083500589811834</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>21.79616479402932</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.678995445223344</v>
       </c>
       <c r="J14">
-        <v>5.866323954973822</v>
+        <v>8.519661134310507</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.72531778320545</v>
       </c>
       <c r="L14">
-        <v>7.256699791714132</v>
+        <v>5.978328041860083</v>
       </c>
       <c r="M14">
-        <v>15.56024343312689</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.467757181365714</v>
       </c>
       <c r="O14">
-        <v>18.22595187855807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.73298228410114</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.93260129693997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.78250294927704</v>
+        <v>26.73911250356536</v>
       </c>
       <c r="C15">
-        <v>14.56722177821328</v>
+        <v>16.10247410134548</v>
       </c>
       <c r="D15">
-        <v>4.973388206794167</v>
+        <v>5.904872115973832</v>
       </c>
       <c r="E15">
-        <v>7.159370506289873</v>
+        <v>7.477622649151157</v>
       </c>
       <c r="F15">
-        <v>24.77420194816198</v>
+        <v>19.60174108864049</v>
       </c>
       <c r="G15">
-        <v>2.084224770318791</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>21.74725712145643</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.661426768509089</v>
       </c>
       <c r="J15">
-        <v>5.873931724795899</v>
+        <v>8.523909923475985</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.75199569347229</v>
       </c>
       <c r="L15">
-        <v>7.240469628965661</v>
+        <v>5.983158959559037</v>
       </c>
       <c r="M15">
-        <v>15.49171488641562</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.452583946022706</v>
       </c>
       <c r="O15">
-        <v>18.21440709622693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.66291590493771</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13.92746810224858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.90941172895882</v>
+        <v>25.89777119455282</v>
       </c>
       <c r="C16">
-        <v>14.22016283279365</v>
+        <v>15.73372891945142</v>
       </c>
       <c r="D16">
-        <v>4.925225138683288</v>
+        <v>5.851146626500194</v>
       </c>
       <c r="E16">
-        <v>7.217998503556679</v>
+        <v>7.537616089238067</v>
       </c>
       <c r="F16">
-        <v>24.60359222089953</v>
+        <v>19.51920665514072</v>
       </c>
       <c r="G16">
-        <v>2.088398583783149</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>21.55204489872184</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.550369589452386</v>
       </c>
       <c r="J16">
-        <v>5.917762399721001</v>
+        <v>8.562925900810304</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.93310438456346</v>
       </c>
       <c r="L16">
-        <v>7.147494016410709</v>
+        <v>6.010451751781503</v>
       </c>
       <c r="M16">
-        <v>15.09452713653953</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.355489452302056</v>
       </c>
       <c r="O16">
-        <v>18.15618009839624</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.24868555000678</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.93479425542869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.36071678091552</v>
+        <v>25.36802523533319</v>
       </c>
       <c r="C17">
-        <v>14.00349699770608</v>
+        <v>15.50388619963708</v>
       </c>
       <c r="D17">
-        <v>4.895859270991312</v>
+        <v>5.818586617810617</v>
       </c>
       <c r="E17">
-        <v>7.254463461092003</v>
+        <v>7.574947436928167</v>
       </c>
       <c r="F17">
-        <v>24.5074874190566</v>
+        <v>19.47344352411376</v>
       </c>
       <c r="G17">
-        <v>2.09098122212388</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>21.43922608486291</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.535463807732096</v>
       </c>
       <c r="J17">
-        <v>5.944867314901773</v>
+        <v>8.58835492202698</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.04619413964115</v>
       </c>
       <c r="L17">
-        <v>7.090502408541499</v>
+        <v>6.02741495410409</v>
       </c>
       <c r="M17">
-        <v>14.84691750019584</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.296100270372828</v>
       </c>
       <c r="O17">
-        <v>18.12735684326218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.98940301945441</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.94289460386952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.04028334633212</v>
+        <v>25.0593205853183</v>
       </c>
       <c r="C18">
-        <v>13.87750985844014</v>
+        <v>15.34865609165129</v>
       </c>
       <c r="D18">
-        <v>4.879037495513376</v>
+        <v>5.799186461152838</v>
       </c>
       <c r="E18">
-        <v>7.275621847632367</v>
+        <v>7.597969141765552</v>
       </c>
       <c r="F18">
-        <v>24.45529096252968</v>
+        <v>19.46703404922994</v>
       </c>
       <c r="G18">
-        <v>2.092475161848596</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>21.40851619650461</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.568408055127218</v>
       </c>
       <c r="J18">
-        <v>5.960539803316871</v>
+        <v>8.608706688899996</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.12220955695125</v>
       </c>
       <c r="L18">
-        <v>7.057746017129269</v>
+        <v>6.037034335220348</v>
       </c>
       <c r="M18">
-        <v>14.70306940195978</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.257738512932704</v>
       </c>
       <c r="O18">
-        <v>18.11324127021822</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.83544864934155</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.9619836452463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.93095614611084</v>
+        <v>24.9531557108372</v>
       </c>
       <c r="C19">
-        <v>13.83461949817226</v>
+        <v>15.31259158112605</v>
       </c>
       <c r="D19">
-        <v>4.873353955983807</v>
+        <v>5.79327844705829</v>
       </c>
       <c r="E19">
-        <v>7.282817577880536</v>
+        <v>7.60475209079822</v>
       </c>
       <c r="F19">
-        <v>24.43814094118183</v>
+        <v>19.45116434782581</v>
       </c>
       <c r="G19">
-        <v>2.092982470942202</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>21.37414210049834</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.587441332563076</v>
       </c>
       <c r="J19">
-        <v>5.96586067877432</v>
+        <v>8.611683138777527</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.14014917514484</v>
       </c>
       <c r="L19">
-        <v>7.046659997139114</v>
+        <v>6.040474577816787</v>
       </c>
       <c r="M19">
-        <v>14.65412158887136</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.248057497766783</v>
       </c>
       <c r="O19">
-        <v>18.10887811878748</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.7852659168842</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.9585288533342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.41962637868287</v>
+        <v>25.42501522465858</v>
       </c>
       <c r="C20">
-        <v>14.02670322743598</v>
+        <v>15.52679970815575</v>
       </c>
       <c r="D20">
-        <v>4.898978261485949</v>
+        <v>5.821972848537181</v>
       </c>
       <c r="E20">
-        <v>7.250562620991682</v>
+        <v>7.571059424818811</v>
       </c>
       <c r="F20">
-        <v>24.51739763742035</v>
+        <v>19.47955425471392</v>
       </c>
       <c r="G20">
-        <v>2.090705426275233</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>21.45345023778032</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.526695981197908</v>
       </c>
       <c r="J20">
-        <v>5.941973482783368</v>
+        <v>8.585999843140851</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.0348876775917</v>
       </c>
       <c r="L20">
-        <v>7.096566969225108</v>
+        <v>6.025582978986988</v>
       </c>
       <c r="M20">
-        <v>14.87342443854078</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.302081261938195</v>
       </c>
       <c r="O20">
-        <v>18.13016861109404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.01697095375066</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.94292878949665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.00389932987846</v>
+        <v>26.95150808363325</v>
       </c>
       <c r="C21">
-        <v>14.65565424014878</v>
+        <v>16.21028194320453</v>
       </c>
       <c r="D21">
-        <v>4.985876973720212</v>
+        <v>5.919395472286451</v>
       </c>
       <c r="E21">
-        <v>7.14438684441007</v>
+        <v>7.461408308752633</v>
       </c>
       <c r="F21">
-        <v>24.82094777539617</v>
+        <v>19.61270921246489</v>
       </c>
       <c r="G21">
-        <v>2.083153734442927</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>21.77930684383325</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.692841329878174</v>
       </c>
       <c r="J21">
-        <v>5.862679843841887</v>
+        <v>8.510865040668152</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.69896271961032</v>
       </c>
       <c r="L21">
-        <v>7.264482951754876</v>
+        <v>5.976351697280712</v>
       </c>
       <c r="M21">
-        <v>15.59302489682695</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.480439492933765</v>
       </c>
       <c r="O21">
-        <v>18.23163074052119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.77007301169452</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.9180508723725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.99689620379656</v>
+        <v>27.90620132595753</v>
       </c>
       <c r="C22">
-        <v>15.05427565680957</v>
+        <v>16.61552797199063</v>
       </c>
       <c r="D22">
-        <v>5.043234263379374</v>
+        <v>5.983182822271767</v>
       </c>
       <c r="E22">
-        <v>7.076608202392879</v>
+        <v>7.393364231585904</v>
       </c>
       <c r="F22">
-        <v>25.04811764504803</v>
+        <v>19.74145032116904</v>
       </c>
       <c r="G22">
-        <v>2.078286353390092</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>22.05920888711493</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.819240007592601</v>
       </c>
       <c r="J22">
-        <v>5.811525938878765</v>
+        <v>8.474211198685554</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.50091645007092</v>
       </c>
       <c r="L22">
-        <v>7.374296788793032</v>
+        <v>5.944524081273784</v>
       </c>
       <c r="M22">
-        <v>16.05018464808546</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.591608011024934</v>
       </c>
       <c r="O22">
-        <v>18.32139161347991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.24126275999981</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.93259959328553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.47076301773836</v>
+        <v>27.40196770953074</v>
       </c>
       <c r="C23">
-        <v>14.84267214662671</v>
+        <v>16.37264108620165</v>
       </c>
       <c r="D23">
-        <v>5.012572175972779</v>
+        <v>5.947949853491066</v>
       </c>
       <c r="E23">
-        <v>7.112636834309362</v>
+        <v>7.431327851744743</v>
       </c>
       <c r="F23">
-        <v>24.92417595535538</v>
+        <v>19.69529015343909</v>
       </c>
       <c r="G23">
-        <v>2.080878309432244</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>21.94923182108262</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.746801764483433</v>
       </c>
       <c r="J23">
-        <v>5.838769802718824</v>
+        <v>8.500301298879636</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.62007867650312</v>
       </c>
       <c r="L23">
-        <v>7.315686948880039</v>
+        <v>5.961092257769526</v>
       </c>
       <c r="M23">
-        <v>15.8074088868346</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.526702009241188</v>
       </c>
       <c r="O23">
-        <v>18.27126612705459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.9876944004949</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.94128732139631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.393008872811</v>
+        <v>25.40138545722132</v>
       </c>
       <c r="C24">
-        <v>14.01621612025936</v>
+        <v>15.47088574051189</v>
       </c>
       <c r="D24">
-        <v>4.897567975168742</v>
+        <v>5.818707084603349</v>
       </c>
       <c r="E24">
-        <v>7.2523255855727</v>
+        <v>7.575682452300573</v>
       </c>
       <c r="F24">
-        <v>24.51290772585503</v>
+        <v>19.51514068528639</v>
       </c>
       <c r="G24">
-        <v>2.090830085009217</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>21.51380197629379</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.509928539160413</v>
       </c>
       <c r="J24">
-        <v>5.943281504768805</v>
+        <v>8.598059581193308</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.06181259230438</v>
       </c>
       <c r="L24">
-        <v>7.093825152191224</v>
+        <v>6.025937074991139</v>
       </c>
       <c r="M24">
-        <v>14.86144530026013</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.290382136083775</v>
       </c>
       <c r="O24">
-        <v>18.12888978009142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.99835957490268</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.9707191011446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9664569599096</v>
+        <v>23.05155643000286</v>
       </c>
       <c r="C25">
-        <v>13.07277625367383</v>
+        <v>14.44326436411239</v>
       </c>
       <c r="D25">
-        <v>4.776176600352835</v>
+        <v>5.68497825895297</v>
       </c>
       <c r="E25">
-        <v>7.41008332581534</v>
+        <v>7.739017110904602</v>
       </c>
       <c r="F25">
-        <v>24.18614820879587</v>
+        <v>19.38966893297943</v>
       </c>
       <c r="G25">
-        <v>2.101892399565608</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>21.14412748737369</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.820472432615813</v>
       </c>
       <c r="J25">
-        <v>6.059200360397364</v>
+        <v>8.724234955847503</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.56604691568993</v>
       </c>
       <c r="L25">
-        <v>6.855515575467691</v>
+        <v>6.099088510319048</v>
       </c>
       <c r="M25">
-        <v>13.78683043266957</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.037632975872367</v>
       </c>
       <c r="O25">
-        <v>18.06854126578267</v>
+        <v>13.85884606854568</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.05254362089141</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.15782362444409</v>
+        <v>21.19860805582371</v>
       </c>
       <c r="C2">
-        <v>13.56468507702299</v>
+        <v>13.54477298512294</v>
       </c>
       <c r="D2">
-        <v>5.589041590646051</v>
+        <v>5.590883571334244</v>
       </c>
       <c r="E2">
-        <v>7.870540933265301</v>
+        <v>7.769457768109183</v>
       </c>
       <c r="F2">
-        <v>19.41246160560287</v>
+        <v>19.04280039678094</v>
       </c>
       <c r="G2">
-        <v>21.05907595806695</v>
+        <v>19.87250751364904</v>
       </c>
       <c r="I2">
-        <v>3.035503972091202</v>
+        <v>2.916202821654076</v>
       </c>
       <c r="J2">
-        <v>8.850313763297395</v>
+        <v>9.12989560671789</v>
       </c>
       <c r="K2">
-        <v>13.99297658231417</v>
+        <v>13.60309263898783</v>
       </c>
       <c r="L2">
-        <v>6.155386864252431</v>
+        <v>11.33735084888404</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.73252931867707</v>
       </c>
       <c r="N2">
-        <v>6.839732650012949</v>
+        <v>6.09198813155875</v>
       </c>
       <c r="O2">
-        <v>12.94933466575701</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.947047231156541</v>
       </c>
       <c r="Q2">
-        <v>14.19462353998073</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.97148915378356</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.91288052791409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.76689303151014</v>
+        <v>19.81715545249559</v>
       </c>
       <c r="C3">
-        <v>12.98553212747193</v>
+        <v>12.8734311652649</v>
       </c>
       <c r="D3">
-        <v>5.529133059442368</v>
+        <v>5.531567732232562</v>
       </c>
       <c r="E3">
-        <v>7.961287268588007</v>
+        <v>7.860094909254125</v>
       </c>
       <c r="F3">
-        <v>19.4250741732089</v>
+        <v>19.07062309853508</v>
       </c>
       <c r="G3">
-        <v>20.9874036707502</v>
+        <v>19.86630868610296</v>
       </c>
       <c r="I3">
-        <v>3.204584149241839</v>
+        <v>3.066806491127719</v>
       </c>
       <c r="J3">
-        <v>8.935389795608966</v>
+        <v>9.178099179876792</v>
       </c>
       <c r="K3">
-        <v>14.27654001127976</v>
+        <v>13.8786116592933</v>
       </c>
       <c r="L3">
-        <v>6.195650624990188</v>
+        <v>11.55140951548315</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.973845295699876</v>
       </c>
       <c r="N3">
-        <v>6.71635602622692</v>
+        <v>6.12641728702957</v>
       </c>
       <c r="O3">
-        <v>12.30375557091199</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.818108028793739</v>
       </c>
       <c r="Q3">
-        <v>14.28805019338592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.31216531229315</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.01338473525533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.86040391948379</v>
+        <v>18.91689822056865</v>
       </c>
       <c r="C4">
-        <v>12.61914075271281</v>
+        <v>12.44753049479332</v>
       </c>
       <c r="D4">
-        <v>5.494204145565622</v>
+        <v>5.497149764120162</v>
       </c>
       <c r="E4">
-        <v>8.019016455811176</v>
+        <v>7.917709556111833</v>
       </c>
       <c r="F4">
-        <v>19.44656992191173</v>
+        <v>19.09931966459695</v>
       </c>
       <c r="G4">
-        <v>20.96326199197219</v>
+        <v>19.88329869602135</v>
       </c>
       <c r="I4">
-        <v>3.312789201210721</v>
+        <v>3.163502975284399</v>
       </c>
       <c r="J4">
-        <v>8.991747725924526</v>
+        <v>9.209744622778956</v>
       </c>
       <c r="K4">
-        <v>14.45659093274839</v>
+        <v>14.05254897641227</v>
       </c>
       <c r="L4">
-        <v>6.221267916321879</v>
+        <v>11.68846389338008</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.139168208453283</v>
       </c>
       <c r="N4">
-        <v>6.642296026557598</v>
+        <v>6.148484326788566</v>
       </c>
       <c r="O4">
-        <v>11.89117008995351</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.74089417654975</v>
       </c>
       <c r="Q4">
-        <v>14.35481230785676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.8902100699033</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.08284340239107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.47731146642972</v>
+        <v>18.53646281220445</v>
       </c>
       <c r="C5">
-        <v>12.47586526773258</v>
+        <v>12.27956388417241</v>
       </c>
       <c r="D5">
-        <v>5.480744709106498</v>
+        <v>5.483935094828102</v>
       </c>
       <c r="E5">
-        <v>8.042547390299577</v>
+        <v>7.941201855126442</v>
       </c>
       <c r="F5">
-        <v>19.45232934074222</v>
+        <v>19.10755125814739</v>
       </c>
       <c r="G5">
-        <v>20.94697672537218</v>
+        <v>19.88389055524548</v>
       </c>
       <c r="I5">
-        <v>3.360656801814505</v>
+        <v>3.207111956397023</v>
       </c>
       <c r="J5">
-        <v>9.013957203609138</v>
+        <v>9.221378506698427</v>
       </c>
       <c r="K5">
-        <v>14.52798469122168</v>
+        <v>14.12126796136811</v>
       </c>
       <c r="L5">
-        <v>6.231936174075126</v>
+        <v>11.74199146248516</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.209452945055286</v>
       </c>
       <c r="N5">
-        <v>6.614180196503069</v>
+        <v>6.157727840210163</v>
       </c>
       <c r="O5">
-        <v>11.72043856568156</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.711527886419057</v>
       </c>
       <c r="Q5">
-        <v>14.37979721239346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.715407701398</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.10857752975718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.41234154599127</v>
+        <v>18.47194144219234</v>
       </c>
       <c r="C6">
-        <v>12.46247794065363</v>
+        <v>12.26233833674258</v>
       </c>
       <c r="D6">
-        <v>5.478904969655546</v>
+        <v>5.482137193856046</v>
       </c>
       <c r="E6">
-        <v>8.045871416377743</v>
+        <v>7.944543150264336</v>
       </c>
       <c r="F6">
-        <v>19.44572550388384</v>
+        <v>19.10140740406745</v>
       </c>
       <c r="G6">
-        <v>20.93078618640784</v>
+        <v>19.87044876814609</v>
       </c>
       <c r="I6">
-        <v>3.372091756161865</v>
+        <v>3.218462752058054</v>
       </c>
       <c r="J6">
-        <v>9.015546688846261</v>
+        <v>9.221180275598977</v>
       </c>
       <c r="K6">
-        <v>14.53570507907456</v>
+        <v>14.12865051470408</v>
       </c>
       <c r="L6">
-        <v>6.233726546664452</v>
+        <v>11.74641571420763</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.21984168028016</v>
       </c>
       <c r="N6">
-        <v>6.61150902830015</v>
+        <v>6.159300505733578</v>
       </c>
       <c r="O6">
-        <v>11.69345625175844</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.708609114943216</v>
       </c>
       <c r="Q6">
-        <v>14.37858595608122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.68771249033339</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.10753051796618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.85380683810925</v>
+        <v>18.91015568830522</v>
       </c>
       <c r="C7">
-        <v>12.64569833710032</v>
+        <v>12.46954911617607</v>
       </c>
       <c r="D7">
-        <v>5.495016196537367</v>
+        <v>5.500411985624335</v>
       </c>
       <c r="E7">
-        <v>8.017668368482633</v>
+        <v>7.916534619387836</v>
       </c>
       <c r="F7">
-        <v>19.42546346919717</v>
+        <v>19.06748834017445</v>
       </c>
       <c r="G7">
-        <v>20.92546192623747</v>
+        <v>19.91738541018179</v>
       </c>
       <c r="I7">
-        <v>3.322482646386809</v>
+        <v>3.175290615273275</v>
       </c>
       <c r="J7">
-        <v>8.986148332001994</v>
+        <v>9.173319390709581</v>
       </c>
       <c r="K7">
-        <v>14.44600281760485</v>
+        <v>14.03845849087192</v>
       </c>
       <c r="L7">
-        <v>6.221445716270302</v>
+        <v>11.67289372765774</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.134030519357422</v>
       </c>
       <c r="N7">
-        <v>6.647252137773861</v>
+        <v>6.148580356108187</v>
       </c>
       <c r="O7">
-        <v>11.89315214587075</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.745726213894843</v>
       </c>
       <c r="Q7">
-        <v>14.34012837548092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.89217968688523</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.05986015696037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68727916391979</v>
+        <v>20.73071074393397</v>
       </c>
       <c r="C8">
-        <v>13.40343135997756</v>
+        <v>13.33758754429244</v>
       </c>
       <c r="D8">
-        <v>5.569300740764574</v>
+        <v>5.579392817809544</v>
       </c>
       <c r="E8">
-        <v>7.899270840885664</v>
+        <v>7.798659798399574</v>
       </c>
       <c r="F8">
-        <v>19.38600508970252</v>
+        <v>18.98609057577389</v>
       </c>
       <c r="G8">
-        <v>20.98080873054792</v>
+        <v>20.05611879919296</v>
       </c>
       <c r="I8">
-        <v>3.104516925004099</v>
+        <v>2.982549741741582</v>
       </c>
       <c r="J8">
-        <v>8.87097468344041</v>
+        <v>9.038093439926083</v>
       </c>
       <c r="K8">
-        <v>14.07419771233358</v>
+        <v>13.66996186964415</v>
       </c>
       <c r="L8">
-        <v>6.169220562879441</v>
+        <v>11.38361275277164</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.7974014565558</v>
       </c>
       <c r="N8">
-        <v>6.803737244257574</v>
+        <v>6.103552144454024</v>
       </c>
       <c r="O8">
-        <v>12.73543197415195</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.908924773607453</v>
       </c>
       <c r="Q8">
-        <v>14.20496114222203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.75319514451317</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.89813030659958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.87111007306388</v>
+        <v>23.89259787475005</v>
       </c>
       <c r="C9">
-        <v>14.75103738891852</v>
+        <v>14.89433330071334</v>
       </c>
       <c r="D9">
-        <v>5.727525986606357</v>
+        <v>5.738933227597907</v>
       </c>
       <c r="E9">
-        <v>7.685776412668799</v>
+        <v>7.585269151117243</v>
       </c>
       <c r="F9">
-        <v>19.46045085407564</v>
+        <v>19.00048477843781</v>
       </c>
       <c r="G9">
-        <v>21.32117312292397</v>
+        <v>20.30430722320829</v>
       </c>
       <c r="I9">
-        <v>2.696578171585745</v>
+        <v>2.618373915829908</v>
       </c>
       <c r="J9">
-        <v>8.689707810371891</v>
+        <v>8.908159397837347</v>
       </c>
       <c r="K9">
-        <v>13.41357904347297</v>
+        <v>13.01848536131105</v>
       </c>
       <c r="L9">
-        <v>6.073643213302122</v>
+        <v>10.89481149897168</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.297108639532931</v>
       </c>
       <c r="N9">
-        <v>7.113496284326952</v>
+        <v>6.02269274516731</v>
       </c>
       <c r="O9">
-        <v>14.24586244423495</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.233821935818356</v>
       </c>
       <c r="Q9">
-        <v>14.04558001961232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.29275667218976</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.70327573590122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.96061250338161</v>
+        <v>25.96627075208543</v>
       </c>
       <c r="C10">
-        <v>15.69348572848812</v>
+        <v>15.95088658848886</v>
       </c>
       <c r="D10">
-        <v>5.852341169125035</v>
+        <v>5.879102760126855</v>
       </c>
       <c r="E10">
-        <v>7.537601727838089</v>
+        <v>7.437894722690872</v>
       </c>
       <c r="F10">
-        <v>19.58106850296713</v>
+        <v>19.00342884444649</v>
       </c>
       <c r="G10">
-        <v>21.66321942100048</v>
+        <v>21.00312308627004</v>
       </c>
       <c r="I10">
-        <v>2.546077295257982</v>
+        <v>2.598822872944217</v>
       </c>
       <c r="J10">
-        <v>8.5763417132719</v>
+        <v>8.651419305982675</v>
       </c>
       <c r="K10">
-        <v>12.95270491490185</v>
+        <v>12.53570742702772</v>
       </c>
       <c r="L10">
-        <v>6.007795566973201</v>
+        <v>10.54507524921681</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.003206383901858</v>
       </c>
       <c r="N10">
-        <v>7.349134868573397</v>
+        <v>5.967564549765137</v>
       </c>
       <c r="O10">
-        <v>15.26911462212204</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.481091626877599</v>
       </c>
       <c r="Q10">
-        <v>13.97505443936224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.33301091259154</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.54790625298859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.85610530111224</v>
+        <v>26.85343752719435</v>
       </c>
       <c r="C11">
-        <v>16.14656544717113</v>
+        <v>16.41278913533963</v>
       </c>
       <c r="D11">
-        <v>5.912228401237181</v>
+        <v>5.970537332442227</v>
       </c>
       <c r="E11">
-        <v>7.469713242317834</v>
+        <v>7.372401791622704</v>
       </c>
       <c r="F11">
-        <v>19.62052216450956</v>
+        <v>18.87683505954811</v>
       </c>
       <c r="G11">
-        <v>21.78690529173956</v>
+        <v>22.03091198204557</v>
       </c>
       <c r="I11">
-        <v>2.67560858077777</v>
+        <v>2.713331715223326</v>
       </c>
       <c r="J11">
-        <v>8.520486923327175</v>
+        <v>8.263780753753371</v>
       </c>
       <c r="K11">
-        <v>12.73044942860048</v>
+        <v>12.26565685307434</v>
       </c>
       <c r="L11">
-        <v>5.979250076232432</v>
+        <v>10.35991811835573</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.838029079862779</v>
       </c>
       <c r="N11">
-        <v>7.464838224998608</v>
+        <v>5.943545193638418</v>
       </c>
       <c r="O11">
-        <v>15.71959455530243</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.601519766296177</v>
       </c>
       <c r="Q11">
-        <v>13.93165430296583</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.79010456712573</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.37636417559911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.18857135757304</v>
+        <v>27.18263123184362</v>
       </c>
       <c r="C12">
-        <v>16.29520649832131</v>
+        <v>16.55943939830172</v>
       </c>
       <c r="D12">
-        <v>5.934323975948809</v>
+        <v>6.007768643867601</v>
       </c>
       <c r="E12">
-        <v>7.445626453540105</v>
+        <v>7.349498240650047</v>
       </c>
       <c r="F12">
-        <v>19.65597675167362</v>
+        <v>18.83427655194858</v>
       </c>
       <c r="G12">
-        <v>21.86848637734484</v>
+        <v>22.55130632416455</v>
       </c>
       <c r="I12">
-        <v>2.720786162690174</v>
+        <v>2.751592682713588</v>
       </c>
       <c r="J12">
-        <v>8.50530321284598</v>
+        <v>8.102945150103796</v>
       </c>
       <c r="K12">
-        <v>12.65760698212945</v>
+        <v>12.16830151620079</v>
       </c>
       <c r="L12">
-        <v>5.968336436866455</v>
+        <v>10.29487851736283</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.781332074093522</v>
       </c>
       <c r="N12">
-        <v>7.504601196539137</v>
+        <v>5.934231825240799</v>
       </c>
       <c r="O12">
-        <v>15.88444394160583</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.643041825298965</v>
       </c>
       <c r="Q12">
-        <v>13.93019248378142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.95730789386517</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.31404137462084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.1174949879328</v>
+        <v>27.11226020370072</v>
       </c>
       <c r="C13">
-        <v>16.25916855727197</v>
+        <v>16.52400094972386</v>
       </c>
       <c r="D13">
-        <v>5.929395934379395</v>
+        <v>5.999434677183821</v>
       </c>
       <c r="E13">
-        <v>7.451068348153809</v>
+        <v>7.354649936521684</v>
       </c>
       <c r="F13">
-        <v>19.65178623556839</v>
+        <v>18.84741810298584</v>
       </c>
       <c r="G13">
-        <v>21.85690545968199</v>
+        <v>22.44095223936507</v>
       </c>
       <c r="I13">
-        <v>2.710306101118694</v>
+        <v>2.742397847208597</v>
       </c>
       <c r="J13">
-        <v>8.509572370088677</v>
+        <v>8.138778612770912</v>
       </c>
       <c r="K13">
-        <v>12.67532976037471</v>
+        <v>12.19123974415556</v>
       </c>
       <c r="L13">
-        <v>5.970629447130842</v>
+        <v>10.30997610076968</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.795395239270762</v>
       </c>
       <c r="N13">
-        <v>7.495211814879607</v>
+        <v>5.936161335435414</v>
       </c>
       <c r="O13">
-        <v>15.84852648548605</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.633292783733324</v>
       </c>
       <c r="Q13">
-        <v>13.93302322056178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.92090297947988</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.33038575593749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.88369037052378</v>
+        <v>26.88075382721001</v>
       </c>
       <c r="C14">
-        <v>16.15707653334498</v>
+        <v>16.42321366018306</v>
       </c>
       <c r="D14">
-        <v>5.913973797368413</v>
+        <v>5.973462533631445</v>
       </c>
       <c r="E14">
-        <v>7.467839450048411</v>
+        <v>7.370609813605419</v>
       </c>
       <c r="F14">
-        <v>19.6249023150738</v>
+        <v>18.87504026093566</v>
       </c>
       <c r="G14">
-        <v>21.79616479402932</v>
+        <v>22.07435095854031</v>
       </c>
       <c r="I14">
-        <v>2.678995445223344</v>
+        <v>2.716061928619293</v>
       </c>
       <c r="J14">
-        <v>8.519661134310507</v>
+        <v>8.25112143540796</v>
       </c>
       <c r="K14">
-        <v>12.72531778320545</v>
+        <v>12.25849421696125</v>
       </c>
       <c r="L14">
-        <v>5.978328041860083</v>
+        <v>10.3550450372733</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.834147348486259</v>
       </c>
       <c r="N14">
-        <v>7.467757181365714</v>
+        <v>5.942747026725495</v>
       </c>
       <c r="O14">
-        <v>15.73298228410114</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.604591670424246</v>
       </c>
       <c r="Q14">
-        <v>13.93260129693997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.80369443796415</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.37249202975047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.73911250356536</v>
+        <v>26.73757765808435</v>
       </c>
       <c r="C15">
-        <v>16.10247410134548</v>
+        <v>16.36887081445211</v>
       </c>
       <c r="D15">
-        <v>5.904872115973832</v>
+        <v>5.958321708794215</v>
       </c>
       <c r="E15">
-        <v>7.477622649151157</v>
+        <v>7.379983488640675</v>
       </c>
       <c r="F15">
-        <v>19.60174108864049</v>
+        <v>18.88358123266174</v>
       </c>
       <c r="G15">
-        <v>21.74725712145643</v>
+        <v>21.85064027453825</v>
       </c>
       <c r="I15">
-        <v>2.661426768509089</v>
+        <v>2.701950245781521</v>
       </c>
       <c r="J15">
-        <v>8.523909923475985</v>
+        <v>8.31655988613822</v>
       </c>
       <c r="K15">
-        <v>12.75199569347229</v>
+        <v>12.29558758780587</v>
       </c>
       <c r="L15">
-        <v>5.983158959559037</v>
+        <v>10.38035269807371</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.854190024948974</v>
       </c>
       <c r="N15">
-        <v>7.452583946022706</v>
+        <v>5.946930875007156</v>
       </c>
       <c r="O15">
-        <v>15.66291590493771</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.588612864996906</v>
       </c>
       <c r="Q15">
-        <v>13.92746810224858</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>15.73256161757378</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.39208149590956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.89777119455282</v>
+        <v>25.90400739482561</v>
       </c>
       <c r="C16">
-        <v>15.73372891945142</v>
+        <v>15.99091657722312</v>
       </c>
       <c r="D16">
-        <v>5.851146626500194</v>
+        <v>5.876266610814053</v>
       </c>
       <c r="E16">
-        <v>7.537616089238067</v>
+        <v>7.438107398781633</v>
       </c>
       <c r="F16">
-        <v>19.51920665514072</v>
+        <v>18.9522753769436</v>
       </c>
       <c r="G16">
-        <v>21.55204489872184</v>
+        <v>20.84504018354414</v>
       </c>
       <c r="I16">
-        <v>2.550369589452386</v>
+        <v>2.607442184239422</v>
       </c>
       <c r="J16">
-        <v>8.562925900810304</v>
+        <v>8.658697374820392</v>
       </c>
       <c r="K16">
-        <v>12.93310438456346</v>
+        <v>12.52232466191685</v>
       </c>
       <c r="L16">
-        <v>6.010451751781503</v>
+        <v>10.53690519774871</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.986239475039588</v>
       </c>
       <c r="N16">
-        <v>7.355489452302056</v>
+        <v>5.970214084189559</v>
       </c>
       <c r="O16">
-        <v>15.24868555000678</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.486891148741568</v>
       </c>
       <c r="Q16">
-        <v>13.93479425542869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.31195767327327</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.51615604222798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.36802523533319</v>
+        <v>25.3788111298481</v>
       </c>
       <c r="C17">
-        <v>15.50388619963708</v>
+        <v>15.74637211121791</v>
       </c>
       <c r="D17">
-        <v>5.818586617810617</v>
+        <v>5.831684378568067</v>
       </c>
       <c r="E17">
-        <v>7.574947436928167</v>
+        <v>7.474781233840513</v>
       </c>
       <c r="F17">
-        <v>19.47344352411376</v>
+        <v>18.97447563243576</v>
       </c>
       <c r="G17">
-        <v>21.43922608486291</v>
+        <v>20.39800617992623</v>
       </c>
       <c r="I17">
-        <v>2.535463807732096</v>
+        <v>2.548686043944651</v>
       </c>
       <c r="J17">
-        <v>8.58835492202698</v>
+        <v>8.819940553968589</v>
       </c>
       <c r="K17">
-        <v>13.04619413964115</v>
+        <v>12.65442728448174</v>
       </c>
       <c r="L17">
-        <v>6.02741495410409</v>
+        <v>10.63049029305769</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.064379808451289</v>
       </c>
       <c r="N17">
-        <v>7.296100270372828</v>
+        <v>5.984634959927812</v>
       </c>
       <c r="O17">
-        <v>14.98940301945441</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.424534381312228</v>
       </c>
       <c r="Q17">
-        <v>13.94289460386952</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>15.04845663729941</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.57591126807597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.0593205853183</v>
+        <v>25.07262362936677</v>
       </c>
       <c r="C18">
-        <v>15.34865609165129</v>
+        <v>15.57896443095097</v>
       </c>
       <c r="D18">
-        <v>5.799186461152838</v>
+        <v>5.807247419287602</v>
       </c>
       <c r="E18">
-        <v>7.597969141765552</v>
+        <v>7.497464487628346</v>
       </c>
       <c r="F18">
-        <v>19.46703404922994</v>
+        <v>18.99792951947812</v>
       </c>
       <c r="G18">
-        <v>21.40851619650461</v>
+        <v>20.23200248493049</v>
       </c>
       <c r="I18">
-        <v>2.568408055127218</v>
+        <v>2.512858385202772</v>
       </c>
       <c r="J18">
-        <v>8.608706688899996</v>
+        <v>8.896730850039662</v>
       </c>
       <c r="K18">
-        <v>13.12220955695125</v>
+        <v>12.73727619738731</v>
       </c>
       <c r="L18">
-        <v>6.037034335220348</v>
+        <v>10.68977232770668</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.116549907037008</v>
       </c>
       <c r="N18">
-        <v>7.257738512932704</v>
+        <v>5.99266947417665</v>
       </c>
       <c r="O18">
-        <v>14.83544864934155</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.384504768431855</v>
       </c>
       <c r="Q18">
-        <v>13.9619836452463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.89202764449029</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.61727977019907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.9531557108372</v>
+        <v>24.9673067380139</v>
       </c>
       <c r="C19">
-        <v>15.31259158112605</v>
+        <v>15.5384849971779</v>
       </c>
       <c r="D19">
-        <v>5.79327844705829</v>
+        <v>5.79994438240841</v>
       </c>
       <c r="E19">
-        <v>7.60475209079822</v>
+        <v>7.504229311757681</v>
       </c>
       <c r="F19">
-        <v>19.45116434782581</v>
+        <v>18.99108435896392</v>
       </c>
       <c r="G19">
-        <v>21.37414210049834</v>
+        <v>20.16124742861695</v>
       </c>
       <c r="I19">
-        <v>2.587441332563076</v>
+        <v>2.53100897227962</v>
       </c>
       <c r="J19">
-        <v>8.611683138777527</v>
+        <v>8.91533733309897</v>
       </c>
       <c r="K19">
-        <v>13.14014917514484</v>
+        <v>12.75775091443742</v>
       </c>
       <c r="L19">
-        <v>6.040474577816787</v>
+        <v>10.70460138492004</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.128000229369912</v>
       </c>
       <c r="N19">
-        <v>7.248057497766783</v>
+        <v>5.995630378747414</v>
       </c>
       <c r="O19">
-        <v>14.7852659168842</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.374198752938793</v>
       </c>
       <c r="Q19">
-        <v>13.9585288533342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.84095205012338</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.62054405608801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.42501522465858</v>
+        <v>25.43532445777512</v>
       </c>
       <c r="C20">
-        <v>15.52679970815575</v>
+        <v>15.77116950132146</v>
       </c>
       <c r="D20">
-        <v>5.821972848537181</v>
+        <v>5.836154578431685</v>
       </c>
       <c r="E20">
-        <v>7.571059424818811</v>
+        <v>7.47094044294779</v>
       </c>
       <c r="F20">
-        <v>19.47955425471392</v>
+        <v>18.97422493831283</v>
       </c>
       <c r="G20">
-        <v>21.45345023778032</v>
+        <v>20.44185808476684</v>
       </c>
       <c r="I20">
-        <v>2.526695981197908</v>
+        <v>2.554469218139049</v>
       </c>
       <c r="J20">
-        <v>8.585999843140851</v>
+        <v>8.805245984876297</v>
       </c>
       <c r="K20">
-        <v>13.0348876775917</v>
+        <v>12.64134554600562</v>
       </c>
       <c r="L20">
-        <v>6.025582978986988</v>
+        <v>10.6211368284589</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.056773844386695</v>
       </c>
       <c r="N20">
-        <v>7.302081261938195</v>
+        <v>5.983070786274352</v>
       </c>
       <c r="O20">
-        <v>15.01697095375066</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.430840677671692</v>
       </c>
       <c r="Q20">
-        <v>13.94292878949665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.07648820180719</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.5711414564493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.95150808363325</v>
+        <v>26.94747621771271</v>
       </c>
       <c r="C21">
-        <v>16.21028194320453</v>
+        <v>16.46219256356517</v>
       </c>
       <c r="D21">
-        <v>5.919395472286451</v>
+        <v>5.990645014048228</v>
       </c>
       <c r="E21">
-        <v>7.461408308752633</v>
+        <v>7.365211635757222</v>
       </c>
       <c r="F21">
-        <v>19.61270921246489</v>
+        <v>18.80853285198791</v>
       </c>
       <c r="G21">
-        <v>21.77930684383325</v>
+        <v>22.40932910303733</v>
       </c>
       <c r="I21">
-        <v>2.692841329878174</v>
+        <v>2.728527918538202</v>
       </c>
       <c r="J21">
-        <v>8.510865040668152</v>
+        <v>8.130341141504617</v>
       </c>
       <c r="K21">
-        <v>12.69896271961032</v>
+        <v>12.21543516418924</v>
       </c>
       <c r="L21">
-        <v>5.976351697280712</v>
+        <v>10.32756836328512</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.800282809190979</v>
       </c>
       <c r="N21">
-        <v>7.480439492933765</v>
+        <v>5.940991005153064</v>
       </c>
       <c r="O21">
-        <v>15.77007301169452</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.617372583277934</v>
       </c>
       <c r="Q21">
-        <v>13.9180508723725</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.84120382498519</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.31528553776051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.90620132595753</v>
+        <v>27.89291948228478</v>
       </c>
       <c r="C22">
-        <v>16.61552797199063</v>
+        <v>16.86652917208154</v>
       </c>
       <c r="D22">
-        <v>5.983182822271767</v>
+        <v>6.095969617597744</v>
       </c>
       <c r="E22">
-        <v>7.393364231585904</v>
+        <v>7.300696907589479</v>
       </c>
       <c r="F22">
-        <v>19.74145032116904</v>
+        <v>18.72070570455412</v>
       </c>
       <c r="G22">
-        <v>22.05920888711493</v>
+        <v>23.88644596482012</v>
       </c>
       <c r="I22">
-        <v>2.819240007592601</v>
+        <v>2.834375861861592</v>
       </c>
       <c r="J22">
-        <v>8.474211198685554</v>
+        <v>7.742087536899936</v>
       </c>
       <c r="K22">
-        <v>12.50091645007092</v>
+        <v>11.94755125769201</v>
       </c>
       <c r="L22">
-        <v>5.944524081273784</v>
+        <v>10.15177830193933</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.652484870076767</v>
       </c>
       <c r="N22">
-        <v>7.591608011024934</v>
+        <v>5.913920150510321</v>
       </c>
       <c r="O22">
-        <v>16.24126275999981</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.733694913660878</v>
       </c>
       <c r="Q22">
-        <v>13.93259959328553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.31890256297867</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.16016079295493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.40196770953074</v>
+        <v>27.39387489383783</v>
       </c>
       <c r="C23">
-        <v>16.37264108620165</v>
+        <v>16.63401944247493</v>
       </c>
       <c r="D23">
-        <v>5.947949853491066</v>
+        <v>6.03208749257345</v>
       </c>
       <c r="E23">
-        <v>7.431327851744743</v>
+        <v>7.336021410250983</v>
       </c>
       <c r="F23">
-        <v>19.69529015343909</v>
+        <v>18.81842843741108</v>
       </c>
       <c r="G23">
-        <v>21.94923182108262</v>
+        <v>22.94332948484041</v>
       </c>
       <c r="I23">
-        <v>2.746801764483433</v>
+        <v>2.772185345448355</v>
       </c>
       <c r="J23">
-        <v>8.500301298879636</v>
+        <v>7.999511659338324</v>
       </c>
       <c r="K23">
-        <v>12.62007867650312</v>
+        <v>12.11200435604733</v>
       </c>
       <c r="L23">
-        <v>5.961092257769526</v>
+        <v>10.25724241881879</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.751617329729098</v>
       </c>
       <c r="N23">
-        <v>7.526702009241188</v>
+        <v>5.927931202931852</v>
       </c>
       <c r="O23">
-        <v>15.9876944004949</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.666306303459969</v>
       </c>
       <c r="Q23">
-        <v>13.94128732139631</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.06206082028087</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.28181286988233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.40138545722132</v>
+        <v>25.41188012739291</v>
       </c>
       <c r="C24">
-        <v>15.47088574051189</v>
+        <v>15.71366253403795</v>
       </c>
       <c r="D24">
-        <v>5.818707084603349</v>
+        <v>5.832400219185288</v>
       </c>
       <c r="E24">
-        <v>7.575682452300573</v>
+        <v>7.475334946498337</v>
       </c>
       <c r="F24">
-        <v>19.51514068528639</v>
+        <v>19.01163605980639</v>
       </c>
       <c r="G24">
-        <v>21.51380197629379</v>
+        <v>20.48888865352619</v>
       </c>
       <c r="I24">
-        <v>2.509928539160413</v>
+        <v>2.539905142006552</v>
       </c>
       <c r="J24">
-        <v>8.598059581193308</v>
+        <v>8.821849249800662</v>
       </c>
       <c r="K24">
-        <v>13.06181259230438</v>
+        <v>12.66692062204835</v>
       </c>
       <c r="L24">
-        <v>6.025937074991139</v>
+        <v>10.63889513154818</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.077321055998523</v>
       </c>
       <c r="N24">
-        <v>7.290382136083775</v>
+        <v>5.983122828980761</v>
       </c>
       <c r="O24">
-        <v>14.99835957490268</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.41914668320404</v>
       </c>
       <c r="Q24">
-        <v>13.9707191011446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.05777487854283</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.60013513989297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.05155643000286</v>
+        <v>23.07898986925509</v>
       </c>
       <c r="C25">
-        <v>14.44326436411239</v>
+        <v>14.53996057000922</v>
       </c>
       <c r="D25">
-        <v>5.68497825895297</v>
+        <v>5.692496116382406</v>
       </c>
       <c r="E25">
-        <v>7.739017110904602</v>
+        <v>7.638514831303099</v>
       </c>
       <c r="F25">
-        <v>19.38966893297943</v>
+        <v>18.96425995859184</v>
       </c>
       <c r="G25">
-        <v>21.14412748737369</v>
+        <v>20.04825158588083</v>
       </c>
       <c r="I25">
-        <v>2.820472432615813</v>
+        <v>2.733142973912531</v>
       </c>
       <c r="J25">
-        <v>8.724234955847503</v>
+        <v>8.974067245085337</v>
       </c>
       <c r="K25">
-        <v>13.56604691568993</v>
+        <v>13.17669153067616</v>
       </c>
       <c r="L25">
-        <v>6.099088510319048</v>
+        <v>11.01103690875696</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.405701599606774</v>
       </c>
       <c r="N25">
-        <v>7.037632975872367</v>
+        <v>6.044394111802736</v>
       </c>
       <c r="O25">
-        <v>13.85884606854568</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.153573619842089</v>
       </c>
       <c r="Q25">
-        <v>14.05254362089141</v>
+        <v>13.89847755335713</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.73434022808469</v>
       </c>
     </row>
   </sheetData>
